--- a/GSE107451/processed_data/ranked_ImmuneGene_List/DGRP551_female_50_vs_3_ImmuneGene_List.xlsx
+++ b/GSE107451/processed_data/ranked_ImmuneGene_List/DGRP551_female_50_vs_3_ImmuneGene_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -51,45 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">AttC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rac2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DptB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cathD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myd88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGRP-LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lectin-28C</t>
   </si>
 </sst>
 </file>
@@ -551,344 +512,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>135.123010055266</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.39767254376682</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.632861052513498</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.78862395504373</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.000151484006055978</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0137161881847049</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>21.0898236224126</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.22021796510213</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.30511485214717</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.56607739412427</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.000362364398630768</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0242923518005165</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17.6031246003733</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.56735880373709</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.19612324598004</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.99043271626877</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00278582495111353</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.117004647946768</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>830.705103926985</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.17893549492414</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.399875903982347</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.9482534035764</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00319574988163669</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.12953934985332</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>472.930993842863</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.97971899111049</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.90162025084115</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.61867162432026</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00882728753185139</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.268049530931969</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>36.5121232673513</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.70907093508193</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.14147012601827</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.37331742051966</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0176291064293391</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.429136640760039</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>176.943899093848</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.42368654016711</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.600063289695732</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.37256063587726</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0176652633244594</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.429136640760039</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n">
-        <v>40.2519899692723</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.39176880810087</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.05537986526052</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.26626344393112</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0234352582167893</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.495123091780168</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n">
-        <v>43.8337161794654</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.77814856573304</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.325114507169</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.09653471507782</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0360347837354938</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.617354773702607</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n">
-        <v>34.5695024474428</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.79106102891044</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.83599789448634</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.06485042292005</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0389371552166378</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.655724266112075</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n">
-        <v>28.9581545974238</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.59643506239733</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.26828891838398</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.04719526029262</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0406389166274832</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.661996557772928</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>95.762490386714</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.43051105583321</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.713994013194598</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.00353368431302</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0451200358148762</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.692082332706127</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>34.4285115748996</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.45387633764369</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.24419290622849</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.97226356568942</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0485795265514703</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.710055469846648</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
